--- a/13/1/2/1/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/1/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Serie</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y143"/>
+  <dimension ref="A1:Y144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11216,13 +11219,13 @@
         <v>161</v>
       </c>
       <c r="B138">
-        <v>4263724</v>
+        <v>4263723</v>
       </c>
       <c r="C138">
         <v>3644301</v>
       </c>
       <c r="D138">
-        <v>46098</v>
+        <v>46097</v>
       </c>
       <c r="E138">
         <v>239648</v>
@@ -11240,7 +11243,7 @@
         <v>234732</v>
       </c>
       <c r="J138">
-        <v>3583202</v>
+        <v>3583204</v>
       </c>
       <c r="K138">
         <v>920670</v>
@@ -11249,7 +11252,7 @@
         <v>225462</v>
       </c>
       <c r="M138">
-        <v>365938</v>
+        <v>365940</v>
       </c>
       <c r="N138">
         <v>1430065</v>
@@ -11261,7 +11264,7 @@
         <v>8143</v>
       </c>
       <c r="Q138">
-        <v>680521</v>
+        <v>680519</v>
       </c>
       <c r="R138">
         <v>207287</v>
@@ -11279,10 +11282,10 @@
         <v>4263952</v>
       </c>
       <c r="W138">
-        <v>3790718</v>
+        <v>3790720</v>
       </c>
       <c r="X138">
-        <v>473234</v>
+        <v>473232</v>
       </c>
     </row>
     <row r="139" spans="1:25">
@@ -11314,7 +11317,7 @@
         <v>76878</v>
       </c>
       <c r="J139">
-        <v>3446982</v>
+        <v>3446985</v>
       </c>
       <c r="K139">
         <v>868454</v>
@@ -11323,7 +11326,7 @@
         <v>329481</v>
       </c>
       <c r="M139">
-        <v>30590</v>
+        <v>30593</v>
       </c>
       <c r="N139">
         <v>1501730</v>
@@ -11335,7 +11338,7 @@
         <v>9399</v>
       </c>
       <c r="Q139">
-        <v>110550</v>
+        <v>110547</v>
       </c>
       <c r="R139">
         <v>435374</v>
@@ -11353,10 +11356,10 @@
         <v>3557844</v>
       </c>
       <c r="W139">
-        <v>3882668</v>
+        <v>3882671</v>
       </c>
       <c r="X139">
-        <v>-324824</v>
+        <v>-324827</v>
       </c>
     </row>
     <row r="140" spans="1:25">
@@ -11364,13 +11367,13 @@
         <v>163</v>
       </c>
       <c r="B140">
-        <v>4266016</v>
+        <v>4246316</v>
       </c>
       <c r="C140">
         <v>3114742</v>
       </c>
       <c r="D140">
-        <v>105792</v>
+        <v>105791</v>
       </c>
       <c r="E140">
         <v>231514</v>
@@ -11385,10 +11388,10 @@
         <v>372897</v>
       </c>
       <c r="I140">
-        <v>407311</v>
+        <v>387611</v>
       </c>
       <c r="J140">
-        <v>5258991</v>
+        <v>5258995</v>
       </c>
       <c r="K140">
         <v>1118842</v>
@@ -11397,7 +11400,7 @@
         <v>430136</v>
       </c>
       <c r="M140">
-        <v>519232</v>
+        <v>519236</v>
       </c>
       <c r="N140">
         <v>2403507</v>
@@ -11409,7 +11412,7 @@
         <v>7741</v>
       </c>
       <c r="Q140">
-        <v>-992975</v>
+        <v>-1012679</v>
       </c>
       <c r="R140">
         <v>643486</v>
@@ -11424,13 +11427,13 @@
         <v>312586</v>
       </c>
       <c r="V140">
-        <v>4267281</v>
+        <v>4247580</v>
       </c>
       <c r="W140">
-        <v>5903741</v>
+        <v>5903745</v>
       </c>
       <c r="X140">
-        <v>-1636460</v>
+        <v>-1656164</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -11441,13 +11444,13 @@
         <v>164</v>
       </c>
       <c r="B141">
-        <v>6816899</v>
+        <v>6816900</v>
       </c>
       <c r="C141">
         <v>5928315</v>
       </c>
       <c r="D141">
-        <v>166596</v>
+        <v>166597</v>
       </c>
       <c r="E141">
         <v>227097</v>
@@ -11465,7 +11468,7 @@
         <v>303826</v>
       </c>
       <c r="J141">
-        <v>4818989</v>
+        <v>4818992</v>
       </c>
       <c r="K141">
         <v>879991</v>
@@ -11474,7 +11477,7 @@
         <v>386173</v>
       </c>
       <c r="M141">
-        <v>39200</v>
+        <v>39203</v>
       </c>
       <c r="N141">
         <v>2862426</v>
@@ -11486,7 +11489,7 @@
         <v>8377</v>
       </c>
       <c r="Q141">
-        <v>1997910</v>
+        <v>1997908</v>
       </c>
       <c r="R141">
         <v>586888</v>
@@ -11501,13 +11504,13 @@
         <v>256618</v>
       </c>
       <c r="V141">
-        <v>6817229</v>
+        <v>6817230</v>
       </c>
       <c r="W141">
-        <v>5406206</v>
+        <v>5406209</v>
       </c>
       <c r="X141">
-        <v>1411023</v>
+        <v>1411020</v>
       </c>
     </row>
     <row r="142" spans="1:25">
@@ -11539,7 +11542,7 @@
         <v>90972</v>
       </c>
       <c r="J142">
-        <v>5780770</v>
+        <v>5780773</v>
       </c>
       <c r="K142">
         <v>849715</v>
@@ -11548,7 +11551,7 @@
         <v>373217</v>
       </c>
       <c r="M142">
-        <v>31773</v>
+        <v>31776</v>
       </c>
       <c r="N142">
         <v>3704268</v>
@@ -11560,7 +11563,7 @@
         <v>15772</v>
       </c>
       <c r="Q142">
-        <v>-2790262</v>
+        <v>-2790265</v>
       </c>
       <c r="R142">
         <v>557034</v>
@@ -11578,10 +11581,10 @@
         <v>2991151</v>
       </c>
       <c r="W142">
-        <v>6338447</v>
+        <v>6338450</v>
       </c>
       <c r="X142">
-        <v>-3347296</v>
+        <v>-3347299</v>
       </c>
     </row>
     <row r="143" spans="1:25">
@@ -11589,7 +11592,7 @@
         <v>166</v>
       </c>
       <c r="B143">
-        <v>3713146</v>
+        <v>3732846</v>
       </c>
       <c r="C143">
         <v>2757722</v>
@@ -11610,10 +11613,10 @@
         <v>73921</v>
       </c>
       <c r="I143">
-        <v>154923</v>
+        <v>174624</v>
       </c>
       <c r="J143">
-        <v>5319555</v>
+        <v>5319558</v>
       </c>
       <c r="K143">
         <v>1117538</v>
@@ -11622,7 +11625,7 @@
         <v>359092</v>
       </c>
       <c r="M143">
-        <v>22748</v>
+        <v>22751</v>
       </c>
       <c r="N143">
         <v>3116639</v>
@@ -11634,7 +11637,7 @@
         <v>8153</v>
       </c>
       <c r="Q143">
-        <v>-1606409</v>
+        <v>-1586712</v>
       </c>
       <c r="R143">
         <v>671374</v>
@@ -11649,16 +11652,90 @@
         <v>321100</v>
       </c>
       <c r="V143">
-        <v>3713341</v>
+        <v>3733041</v>
       </c>
       <c r="W143">
-        <v>5991124</v>
+        <v>5991127</v>
       </c>
       <c r="X143">
-        <v>-2277783</v>
+        <v>-2258086</v>
       </c>
       <c r="Y143">
         <v>-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
+      <c r="A144" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144">
+        <v>4139698</v>
+      </c>
+      <c r="C144">
+        <v>3254655</v>
+      </c>
+      <c r="D144">
+        <v>291577</v>
+      </c>
+      <c r="E144">
+        <v>231852</v>
+      </c>
+      <c r="F144">
+        <v>3554</v>
+      </c>
+      <c r="G144">
+        <v>37084</v>
+      </c>
+      <c r="H144">
+        <v>78197</v>
+      </c>
+      <c r="I144">
+        <v>242779</v>
+      </c>
+      <c r="J144">
+        <v>7004507</v>
+      </c>
+      <c r="K144">
+        <v>876783</v>
+      </c>
+      <c r="L144">
+        <v>372509</v>
+      </c>
+      <c r="M144">
+        <v>335936</v>
+      </c>
+      <c r="N144">
+        <v>4692589</v>
+      </c>
+      <c r="O144">
+        <v>703576</v>
+      </c>
+      <c r="P144">
+        <v>23115</v>
+      </c>
+      <c r="Q144">
+        <v>-2864809</v>
+      </c>
+      <c r="R144">
+        <v>569551</v>
+      </c>
+      <c r="S144">
+        <v>574</v>
+      </c>
+      <c r="T144">
+        <v>297190</v>
+      </c>
+      <c r="U144">
+        <v>272935</v>
+      </c>
+      <c r="V144">
+        <v>4140273</v>
+      </c>
+      <c r="W144">
+        <v>7574632</v>
+      </c>
+      <c r="X144">
+        <v>-3434360</v>
       </c>
     </row>
   </sheetData>

--- a/13/1/2/1/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/1/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Serie</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -875,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y144"/>
+  <dimension ref="A1:Y145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11738,6 +11741,80 @@
         <v>-3434360</v>
       </c>
     </row>
+    <row r="145" spans="1:24">
+      <c r="A145" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145">
+        <v>4630173</v>
+      </c>
+      <c r="C145">
+        <v>3771891</v>
+      </c>
+      <c r="D145">
+        <v>283726</v>
+      </c>
+      <c r="E145">
+        <v>227471</v>
+      </c>
+      <c r="F145">
+        <v>9304</v>
+      </c>
+      <c r="G145">
+        <v>27425</v>
+      </c>
+      <c r="H145">
+        <v>102335</v>
+      </c>
+      <c r="I145">
+        <v>208020</v>
+      </c>
+      <c r="J145">
+        <v>6093920</v>
+      </c>
+      <c r="K145">
+        <v>862709</v>
+      </c>
+      <c r="L145">
+        <v>345314</v>
+      </c>
+      <c r="M145">
+        <v>31384</v>
+      </c>
+      <c r="N145">
+        <v>4250669</v>
+      </c>
+      <c r="O145">
+        <v>597212</v>
+      </c>
+      <c r="P145">
+        <v>6632</v>
+      </c>
+      <c r="Q145">
+        <v>-1463746</v>
+      </c>
+      <c r="R145">
+        <v>589941</v>
+      </c>
+      <c r="S145">
+        <v>504</v>
+      </c>
+      <c r="T145">
+        <v>331952</v>
+      </c>
+      <c r="U145">
+        <v>258492</v>
+      </c>
+      <c r="V145">
+        <v>4630677</v>
+      </c>
+      <c r="W145">
+        <v>6684364</v>
+      </c>
+      <c r="X145">
+        <v>-2053687</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/1/2/1/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/1/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Serie</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y145"/>
+  <dimension ref="A1:Y146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11246,7 +11249,7 @@
         <v>234732</v>
       </c>
       <c r="J138">
-        <v>3583204</v>
+        <v>3583212</v>
       </c>
       <c r="K138">
         <v>920670</v>
@@ -11255,7 +11258,7 @@
         <v>225462</v>
       </c>
       <c r="M138">
-        <v>365940</v>
+        <v>365948</v>
       </c>
       <c r="N138">
         <v>1430065</v>
@@ -11267,7 +11270,7 @@
         <v>8143</v>
       </c>
       <c r="Q138">
-        <v>680519</v>
+        <v>680512</v>
       </c>
       <c r="R138">
         <v>207287</v>
@@ -11285,10 +11288,10 @@
         <v>4263952</v>
       </c>
       <c r="W138">
-        <v>3790720</v>
+        <v>3790727</v>
       </c>
       <c r="X138">
-        <v>473232</v>
+        <v>473225</v>
       </c>
     </row>
     <row r="139" spans="1:25">
@@ -11320,7 +11323,7 @@
         <v>76878</v>
       </c>
       <c r="J139">
-        <v>3446985</v>
+        <v>3446996</v>
       </c>
       <c r="K139">
         <v>868454</v>
@@ -11329,7 +11332,7 @@
         <v>329481</v>
       </c>
       <c r="M139">
-        <v>30593</v>
+        <v>30604</v>
       </c>
       <c r="N139">
         <v>1501730</v>
@@ -11341,7 +11344,7 @@
         <v>9399</v>
       </c>
       <c r="Q139">
-        <v>110547</v>
+        <v>110536</v>
       </c>
       <c r="R139">
         <v>435374</v>
@@ -11359,10 +11362,10 @@
         <v>3557844</v>
       </c>
       <c r="W139">
-        <v>3882671</v>
+        <v>3882682</v>
       </c>
       <c r="X139">
-        <v>-324827</v>
+        <v>-324838</v>
       </c>
     </row>
     <row r="140" spans="1:25">
@@ -11394,7 +11397,7 @@
         <v>387611</v>
       </c>
       <c r="J140">
-        <v>5258995</v>
+        <v>5259010</v>
       </c>
       <c r="K140">
         <v>1118842</v>
@@ -11403,7 +11406,7 @@
         <v>430136</v>
       </c>
       <c r="M140">
-        <v>519236</v>
+        <v>519251</v>
       </c>
       <c r="N140">
         <v>2403507</v>
@@ -11415,7 +11418,7 @@
         <v>7741</v>
       </c>
       <c r="Q140">
-        <v>-1012679</v>
+        <v>-1012693</v>
       </c>
       <c r="R140">
         <v>643486</v>
@@ -11433,10 +11436,10 @@
         <v>4247580</v>
       </c>
       <c r="W140">
-        <v>5903745</v>
+        <v>5903759</v>
       </c>
       <c r="X140">
-        <v>-1656164</v>
+        <v>-1656179</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -11471,7 +11474,7 @@
         <v>303826</v>
       </c>
       <c r="J141">
-        <v>4818992</v>
+        <v>4819003</v>
       </c>
       <c r="K141">
         <v>879991</v>
@@ -11480,7 +11483,7 @@
         <v>386173</v>
       </c>
       <c r="M141">
-        <v>39203</v>
+        <v>39214</v>
       </c>
       <c r="N141">
         <v>2862426</v>
@@ -11492,7 +11495,7 @@
         <v>8377</v>
       </c>
       <c r="Q141">
-        <v>1997908</v>
+        <v>1997897</v>
       </c>
       <c r="R141">
         <v>586888</v>
@@ -11510,10 +11513,10 @@
         <v>6817230</v>
       </c>
       <c r="W141">
-        <v>5406209</v>
+        <v>5406220</v>
       </c>
       <c r="X141">
-        <v>1411020</v>
+        <v>1411009</v>
       </c>
     </row>
     <row r="142" spans="1:25">
@@ -11545,7 +11548,7 @@
         <v>90972</v>
       </c>
       <c r="J142">
-        <v>5780773</v>
+        <v>5780784</v>
       </c>
       <c r="K142">
         <v>849715</v>
@@ -11554,7 +11557,7 @@
         <v>373217</v>
       </c>
       <c r="M142">
-        <v>31776</v>
+        <v>31787</v>
       </c>
       <c r="N142">
         <v>3704268</v>
@@ -11566,7 +11569,7 @@
         <v>15772</v>
       </c>
       <c r="Q142">
-        <v>-2790265</v>
+        <v>-2790276</v>
       </c>
       <c r="R142">
         <v>557034</v>
@@ -11584,10 +11587,10 @@
         <v>2991151</v>
       </c>
       <c r="W142">
-        <v>6338450</v>
+        <v>6338461</v>
       </c>
       <c r="X142">
-        <v>-3347299</v>
+        <v>-3347310</v>
       </c>
     </row>
     <row r="143" spans="1:25">
@@ -11616,10 +11619,10 @@
         <v>73921</v>
       </c>
       <c r="I143">
-        <v>174624</v>
+        <v>174623</v>
       </c>
       <c r="J143">
-        <v>5319558</v>
+        <v>5319569</v>
       </c>
       <c r="K143">
         <v>1117538</v>
@@ -11628,7 +11631,7 @@
         <v>359092</v>
       </c>
       <c r="M143">
-        <v>22751</v>
+        <v>22762</v>
       </c>
       <c r="N143">
         <v>3116639</v>
@@ -11640,7 +11643,7 @@
         <v>8153</v>
       </c>
       <c r="Q143">
-        <v>-1586712</v>
+        <v>-1586723</v>
       </c>
       <c r="R143">
         <v>671374</v>
@@ -11658,10 +11661,10 @@
         <v>3733041</v>
       </c>
       <c r="W143">
-        <v>5991127</v>
+        <v>5991138</v>
       </c>
       <c r="X143">
-        <v>-2258086</v>
+        <v>-2258097</v>
       </c>
       <c r="Y143">
         <v>-2</v>
@@ -11696,7 +11699,7 @@
         <v>242779</v>
       </c>
       <c r="J144">
-        <v>7004507</v>
+        <v>7004520</v>
       </c>
       <c r="K144">
         <v>876783</v>
@@ -11705,7 +11708,7 @@
         <v>372509</v>
       </c>
       <c r="M144">
-        <v>335936</v>
+        <v>335949</v>
       </c>
       <c r="N144">
         <v>4692589</v>
@@ -11717,7 +11720,7 @@
         <v>23115</v>
       </c>
       <c r="Q144">
-        <v>-2864809</v>
+        <v>-2864822</v>
       </c>
       <c r="R144">
         <v>569551</v>
@@ -11735,13 +11738,13 @@
         <v>4140273</v>
       </c>
       <c r="W144">
-        <v>7574632</v>
+        <v>7574645</v>
       </c>
       <c r="X144">
-        <v>-3434360</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24">
+        <v>-3434372</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
       <c r="A145" t="s">
         <v>168</v>
       </c>
@@ -11770,7 +11773,7 @@
         <v>208020</v>
       </c>
       <c r="J145">
-        <v>6093920</v>
+        <v>6093933</v>
       </c>
       <c r="K145">
         <v>862709</v>
@@ -11779,7 +11782,7 @@
         <v>345314</v>
       </c>
       <c r="M145">
-        <v>31384</v>
+        <v>31397</v>
       </c>
       <c r="N145">
         <v>4250669</v>
@@ -11791,7 +11794,7 @@
         <v>6632</v>
       </c>
       <c r="Q145">
-        <v>-1463746</v>
+        <v>-1463760</v>
       </c>
       <c r="R145">
         <v>589941</v>
@@ -11809,10 +11812,87 @@
         <v>4630677</v>
       </c>
       <c r="W145">
-        <v>6684364</v>
+        <v>6684377</v>
       </c>
       <c r="X145">
-        <v>-2053687</v>
+        <v>-2053700</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
+      <c r="A146" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146">
+        <v>5345874</v>
+      </c>
+      <c r="C146">
+        <v>4216499</v>
+      </c>
+      <c r="D146">
+        <v>280321</v>
+      </c>
+      <c r="E146">
+        <v>239920</v>
+      </c>
+      <c r="F146">
+        <v>5437</v>
+      </c>
+      <c r="G146">
+        <v>102034</v>
+      </c>
+      <c r="H146">
+        <v>75252</v>
+      </c>
+      <c r="I146">
+        <v>426411</v>
+      </c>
+      <c r="J146">
+        <v>7111100</v>
+      </c>
+      <c r="K146">
+        <v>1119042</v>
+      </c>
+      <c r="L146">
+        <v>396101</v>
+      </c>
+      <c r="M146">
+        <v>514494</v>
+      </c>
+      <c r="N146">
+        <v>4349669</v>
+      </c>
+      <c r="O146">
+        <v>720658</v>
+      </c>
+      <c r="P146">
+        <v>11134</v>
+      </c>
+      <c r="Q146">
+        <v>-1765226</v>
+      </c>
+      <c r="R146">
+        <v>663253</v>
+      </c>
+      <c r="S146">
+        <v>248</v>
+      </c>
+      <c r="T146">
+        <v>346882</v>
+      </c>
+      <c r="U146">
+        <v>316619</v>
+      </c>
+      <c r="V146">
+        <v>5346121</v>
+      </c>
+      <c r="W146">
+        <v>7774601</v>
+      </c>
+      <c r="X146">
+        <v>-2428480</v>
+      </c>
+      <c r="Y146">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
